--- a/data/trans_camb/IP16A04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A04-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 0,0</t>
+          <t>-16,97; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 0,0</t>
+          <t>-16,97; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,88</t>
+          <t>0,0; 12,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,6</t>
+          <t>-4,86; 2,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 0,0</t>
+          <t>-8,1; 0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,99</t>
+          <t>-3,19; 0,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,85</t>
+          <t>-1,72; 3,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,0</t>
+          <t>-3,82; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,72</t>
+          <t>-0,34; 5,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,26</t>
+          <t>-2,43; 0,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,88</t>
+          <t>-0,6; 3,39</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,11; —</t>
+          <t>-62,78; —</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 5,66</t>
+          <t>-6,82; 5,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 0,0</t>
+          <t>-12,66; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 0,0</t>
+          <t>-16,52; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 3,85</t>
+          <t>-13,45; 3,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 1,55</t>
+          <t>-7,45; 2,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 1,47</t>
+          <t>-8,03; 1,13</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 1,02</t>
+          <t>-3,25; 1,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,1</t>
+          <t>-3,1; 1,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,34</t>
+          <t>-3,35; 0,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,6</t>
+          <t>-1,04; 3,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,41</t>
+          <t>-2,26; 0,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,99</t>
+          <t>-1,35; 2,12</t>
         </is>
       </c>
     </row>
@@ -1354,17 +1354,17 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-83,81; —</t>
+          <t>-73,59; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-91,61; 154,28</t>
+          <t>-92,66; 123,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,15; 398,69</t>
+          <t>-65,82; 450,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A04-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,59</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,73; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,73; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; 2,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,18; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 0,0</t>
+          <t>-4,42; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 0,0</t>
+          <t>-0,66; 5,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,79</t>
+          <t>-3,19; 0,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 2,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 2,63</t>
+          <t>-2,47; 0,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 0,0</t>
+          <t>-0,53; 3,57</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>275,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-38,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,5%</t>
+          <t>-68,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>182,44%</t>
         </is>
       </c>
     </row>
@@ -896,14 +896,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,42; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-1,77</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 0,99</t>
+          <t>-16,74; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,33</t>
+          <t>-12,88; 3,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 0,0</t>
+          <t>-6,9; 5,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,76</t>
+          <t>-11,58; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,26</t>
+          <t>-7,22; 1,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,39</t>
+          <t>-8,29; 0,98</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-38,22%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>76,08%</t>
+          <t>-43,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>275,74%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-68,73%</t>
+          <t>-49,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>182,44%</t>
+          <t>-64,7%</t>
         </is>
       </c>
     </row>
@@ -1052,14 +1052,14 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,78; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 5,49</t>
+          <t>-3,47; 0,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 0,0</t>
+          <t>-1,12; 3,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 0,0</t>
+          <t>-3,17; 1,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 3,83</t>
+          <t>-3,2; 1,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 2,1</t>
+          <t>-2,4; 0,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 1,13</t>
+          <t>-1,15; 2,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>-70,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>116,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-35,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-43,35%</t>
+          <t>-39,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-49,13%</t>
+          <t>-51,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-64,7%</t>
+          <t>28,86%</t>
         </is>
       </c>
     </row>
@@ -1203,187 +1203,30 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,42; 125,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,17; 386,8</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 1,05</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,1; 1,35</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 0,34</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 3,8</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 0,4</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 2,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-35,54%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-39,07%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-70,73%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>116,23%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-50,87%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>29,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-73,59; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-92,66; 123,17</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-65,82; 450,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
